--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1515484.381852698</v>
+        <v>1511347.224602547</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>55.17793878914699</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>199.9005547064372</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>137.7336954102809</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>176.5291587501247</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>70.70610920612374</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>167.3281080333422</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110028</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>42.7851189567388</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.9430992003375</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1150,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>130.230551084273</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>99.06429041327286</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>50.9807481254283</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>140.9357387834172</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>5.890337106877586</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2490,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060473</v>
       </c>
       <c r="H25" t="n">
-        <v>41.02686156550261</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>172.1249649038643</v>
       </c>
     </row>
     <row r="29">
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>131.2944603446581</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>164.5981994227934</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>149.3431529631717</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>103.1226065694021</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3559,10 +3559,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.1319933510091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>9.146142788179874</v>
+        <v>37.01163236946504</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1330.099343395678</v>
+        <v>1660.900948886693</v>
       </c>
       <c r="C2" t="n">
-        <v>1330.099343395678</v>
+        <v>1291.938431946281</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>933.6727333395309</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>933.6727333395309</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>522.6868285499233</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>106.9820782742122</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>106.9820782742122</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800312</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664336</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664336</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W2" t="n">
-        <v>2308.758267664336</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X2" t="n">
-        <v>2106.838515435611</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y2" t="n">
-        <v>1716.699183459799</v>
+        <v>2047.500788950815</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>114.5432626034352</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>299.2648838844853</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>593.9684409159571</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217535</v>
+        <v>957.2304598751773</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118699</v>
+        <v>1344.515588472123</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.639966294861</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2238.100841080695</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2561.393271046732</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400156</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>538.2860735999672</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>369.3498906720603</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>219.2332512597245</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800312</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1497.321175215628</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1497.321175215628</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074498</v>
+        <v>1497.321175215628</v>
       </c>
       <c r="V4" t="n">
-        <v>1458.133838508715</v>
+        <v>1497.321175215628</v>
       </c>
       <c r="W4" t="n">
-        <v>1168.716668471754</v>
+        <v>1497.321175215628</v>
       </c>
       <c r="X4" t="n">
-        <v>940.727117573737</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="Y4" t="n">
-        <v>719.9345384302069</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1719.977393518933</v>
+        <v>141.2769458819316</v>
       </c>
       <c r="C5" t="n">
-        <v>1351.014876578521</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="D5" t="n">
-        <v>1351.014876578521</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2106.577233583055</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X5" t="n">
-        <v>2106.577233583055</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y5" t="n">
-        <v>2106.577233583055</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="6">
@@ -4634,37 +4634,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100998</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866265</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>643.8611643309008</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="C7" t="n">
-        <v>643.8611643309008</v>
+        <v>292.9776840319553</v>
       </c>
       <c r="D7" t="n">
-        <v>643.8611643309008</v>
+        <v>142.8610446196195</v>
       </c>
       <c r="E7" t="n">
-        <v>495.9480707485077</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>349.0581232505973</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.643294372448</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X7" t="n">
-        <v>864.6537434744309</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y7" t="n">
-        <v>643.8611643309008</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2361.386702945269</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="C8" t="n">
-        <v>1992.424186004858</v>
+        <v>1819.911053198663</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>1461.645354591913</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>1075.857101993669</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>664.8711972040612</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>249.1664469283501</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400156</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.339328400156</v>
+        <v>2188.873570139075</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>790.776498401435</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1154.038517360655</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1541.3236459576</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>298.2016738773002</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>298.2016738773002</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>298.2016738773002</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>298.2016738773002</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>151.3117263793899</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>151.3117263793899</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>151.3117263793899</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="V10" t="n">
-        <v>990.0598878880306</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>700.6427178510701</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>700.6427178510701</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>479.8501387075399</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694706</v>
@@ -5077,16 +5077,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5123,16 +5123,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5229,22 +5229,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5260,67 +5260,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5746,31 +5746,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,25 +5834,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3099000622266</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343197</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2570777219839</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E25" t="n">
-        <v>449.3439841395908</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F25" t="n">
-        <v>302.4540366416804</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G25" t="n">
-        <v>135.2579373565604</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934014</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892466</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3241.424143276704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3869.022106831311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6478,13 +6478,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>636.6680198981028</v>
+        <v>1089.575996120531</v>
       </c>
       <c r="C31" t="n">
-        <v>467.7318369701959</v>
+        <v>920.6398131926237</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6151975578601</v>
+        <v>770.5231737802879</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>622.6100801978948</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>475.7201326999844</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>308.5240334148644</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000582</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>1811.200273012738</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V31" t="n">
-        <v>1556.515784806851</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W31" t="n">
-        <v>1267.09861476989</v>
+        <v>1720.006590992318</v>
       </c>
       <c r="X31" t="n">
-        <v>1039.109063871873</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y31" t="n">
-        <v>818.3164847283425</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2229.065710172894</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2009.464245195835</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>2009.464245195835</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="35">
@@ -6916,25 +6916,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.6918836311994</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908938</v>
@@ -7089,10 +7089,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.3403484614391</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7195,19 +7195,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>781.8178837532263</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532263</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429802</v>
@@ -7326,10 +7326,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>781.8178837532263</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7393,22 +7393,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111701</v>
@@ -7490,28 +7490,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7548,19 +7548,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,16 +7739,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>988.1395539230172</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>819.2033709951103</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597624</v>
+        <v>669.0867315827745</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.9556134883069163</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>21.89339468985676</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621885</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>186.5911984019041</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
-        <v>199.7516311504059</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>84.77391660561995</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>211.5151132204107</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="H25" t="n">
-        <v>99.26785128072125</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
     </row>
     <row r="29">
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>9.000252501565797</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>121.5862749664508</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>31.68313303847287</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>64.12421452922572</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.45266000108569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>46.45968844823057</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>137.2878198583893</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>914139.3643013805</v>
+        <v>914139.3643013801</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>914139.3643013805</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>914139.3643013805</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013805</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013804</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013805</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062537</v>
@@ -26346,16 +26346,16 @@
         <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="G4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="F4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="H4" t="n">
-        <v>6897.42449670736</v>
-      </c>
       <c r="I4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707341</v>
       </c>
       <c r="J4" t="n">
         <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.42449670733</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
+        <v>6897.424496707341</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="M4" t="n">
-        <v>6897.424496707335</v>
-      </c>
       <c r="N4" t="n">
-        <v>6897.424496707341</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-826448.1766822126</v>
       </c>
       <c r="C6" t="n">
-        <v>288303.6068937073</v>
+        <v>288303.6068937078</v>
       </c>
       <c r="D6" t="n">
         <v>288303.6068937074</v>
       </c>
       <c r="E6" t="n">
-        <v>-111038.7711389063</v>
+        <v>-111386.1503932635</v>
       </c>
       <c r="F6" t="n">
-        <v>396446.6704856393</v>
+        <v>396099.2912312821</v>
       </c>
       <c r="G6" t="n">
-        <v>396446.6704856393</v>
+        <v>396099.2912312824</v>
       </c>
       <c r="H6" t="n">
-        <v>396446.6704856394</v>
+        <v>396099.2912312822</v>
       </c>
       <c r="I6" t="n">
-        <v>396446.670485639</v>
+        <v>396099.291231282</v>
       </c>
       <c r="J6" t="n">
-        <v>228841.4926756566</v>
+        <v>228494.1134212996</v>
       </c>
       <c r="K6" t="n">
-        <v>396446.6704856392</v>
+        <v>396099.2912312823</v>
       </c>
       <c r="L6" t="n">
-        <v>396446.6704856393</v>
+        <v>396099.2912312823</v>
       </c>
       <c r="M6" t="n">
-        <v>263839.3767567127</v>
+        <v>263491.9975023557</v>
       </c>
       <c r="N6" t="n">
-        <v>396446.6704856392</v>
+        <v>396099.2912312823</v>
       </c>
       <c r="O6" t="n">
-        <v>396446.6704856392</v>
+        <v>396099.2912312823</v>
       </c>
       <c r="P6" t="n">
-        <v>396446.6704856392</v>
+        <v>396099.2912312825</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>10.53197388332345</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>169.8305459720318</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>56.92876495145651</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27596,16 +27596,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>75.60848457370329</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>294.5667825648838</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>214.6022620389196</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>55.73584717546889</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>123.5214810880654</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>183.7907424631431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>170.7880014781324</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>5.732304790627708</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28067,16 +28067,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>235.2464059957723</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>467.1465236515248</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32332,10 +32332,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32554,28 +32554,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>173.3851399586634</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33259,13 +33259,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,10 +34128,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817577</v>
@@ -34210,13 +34210,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>362.5355639238077</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>429.5828357723605</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>63.93583437922437</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434849</v>
@@ -34801,7 +34801,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9556134883069083</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0158803980272</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>497.4319917882561</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.584832100039</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>328.5921438716506</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36378,10 +36378,10 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,22 +36682,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>31.25110603664509</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
         <v>735.300110790295</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,13 +37156,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37858,13 +37858,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>222.5537898377862</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>295.6084283580303</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1511347.224602547</v>
+        <v>1513107.754905332</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>234.1055905923172</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>55.17793878914699</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>137.7336954102809</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>66.40055121331467</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>70.70610920612374</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>264.5225831370037</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>126.5175530622121</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>90.69811547110028</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>178.6410543523227</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>130.230551084273</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>50.9807481254283</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>60.64713141731118</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>140.9357387834172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>175.3253504652189</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8913819999787</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>22.65115569188744</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>172.1249649038643</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>131.2944603446581</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>149.3431529631717</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>253.630393765991</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>68.17501931583779</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>37.01163236946504</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4188,13 +4188,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>92.87435055577278</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1660.900948886693</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="C2" t="n">
-        <v>1291.938431946281</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D2" t="n">
-        <v>933.6727333395309</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>933.6727333395309</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>522.6868285499233</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>106.9820782742122</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>106.9820782742122</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="Y2" t="n">
-        <v>2047.500788950815</v>
+        <v>2228.894479532451</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>114.5432626034352</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>299.2648838844853</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159571</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751773</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472123</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>1922.533821476954</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400156</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4497,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1497.321175215628</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1497.321175215628</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1497.321175215628</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1497.321175215628</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1497.321175215628</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="X4" t="n">
-        <v>1269.331624317611</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>1120.592726181117</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.2769458819316</v>
+        <v>1423.993461865604</v>
       </c>
       <c r="C5" t="n">
-        <v>69.85663355251364</v>
+        <v>1423.993461865604</v>
       </c>
       <c r="D5" t="n">
-        <v>69.85663355251364</v>
+        <v>1423.993461865604</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251364</v>
+        <v>1038.20520926736</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800311</v>
@@ -4567,16 +4567,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182945</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X5" t="n">
-        <v>918.0161179218651</v>
+        <v>1810.593301929726</v>
       </c>
       <c r="Y5" t="n">
-        <v>527.8767859460534</v>
+        <v>1810.593301929726</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380231</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694948</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.9138669598622</v>
+        <v>493.9187069012835</v>
       </c>
       <c r="C7" t="n">
-        <v>292.9776840319553</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="D7" t="n">
-        <v>142.8610446196195</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
         <v>51.24678656800311</v>
@@ -4725,25 +4725,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.344461831649</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="X7" t="n">
-        <v>864.354910933632</v>
+        <v>896.3597508750534</v>
       </c>
       <c r="Y7" t="n">
-        <v>643.5623317901019</v>
+        <v>675.5671717315232</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2188.873570139075</v>
+        <v>1457.824646659611</v>
       </c>
       <c r="C8" t="n">
-        <v>1819.911053198663</v>
+        <v>1457.824646659611</v>
       </c>
       <c r="D8" t="n">
-        <v>1461.645354591913</v>
+        <v>1099.558948052861</v>
       </c>
       <c r="E8" t="n">
-        <v>1075.857101993669</v>
+        <v>713.7706954546165</v>
       </c>
       <c r="F8" t="n">
-        <v>664.8711972040612</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>249.1664469283501</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139075</v>
+        <v>1457.824646659611</v>
       </c>
       <c r="Y8" t="n">
-        <v>2188.873570139075</v>
+        <v>1457.824646659611</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312198</v>
@@ -4977,10 +4977,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1584.950414897297</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5047,46 +5047,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5135,10 +5135,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F13" t="n">
         <v>235.5284942057738</v>
@@ -5193,10 +5193,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5241,10 +5241,10 @@
         <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400717</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
         <v>407.9027098310023</v>
@@ -5427,61 +5427,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="17">
@@ -5497,43 +5497,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433381</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5746,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5980,34 +5980,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327652</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048583</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925226</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101294</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122191</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630049</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,37 +6454,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1089.575996120531</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>920.6398131926237</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>770.5231737802879</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>622.6100801978948</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>475.7201326999844</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>308.5240334148644</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1720.006590992318</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1271.22446095077</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,13 +6712,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2229.065710172894</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2009.464245195835</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2009.464245195835</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1237.37303605497</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1016.58045691144</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908938</v>
@@ -7089,58 +7089,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7165,58 +7165,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7393,40 +7393,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7657,10 +7657,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>988.1395539230172</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C46" t="n">
-        <v>819.2033709951103</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D46" t="n">
-        <v>669.0867315827745</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2103.250070178706</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1814.174843522904</v>
       </c>
       <c r="V46" t="n">
-        <v>1907.987318831765</v>
+        <v>1559.490355317017</v>
       </c>
       <c r="W46" t="n">
-        <v>1618.570148794804</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X46" t="n">
-        <v>1390.580597896787</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y46" t="n">
-        <v>1169.788018753257</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9556134883069163</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>45.44676101130858</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>138.9393975111061</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.77391660562006</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>84.77391660561995</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4.506629716718351</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>41.54258064659051</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23940,7 +23940,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24414,7 +24414,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>9.000252501565797</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>31.68313303847287</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>32.89260457059999</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>80.44045370237457</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>914139.3643013801</v>
+        <v>914139.3643013804</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013804</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013804</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013804</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>914139.3643013805</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013805</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013804</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>914139.3643013805</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
@@ -26328,10 +26328,10 @@
         <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062536</v>
@@ -26340,22 +26340,22 @@
         <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="M2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="O2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
         <v>131909.726831625</v>
@@ -26429,34 +26429,34 @@
         <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707341</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707341</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26472,7 +26472,7 @@
         <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26524,46 +26524,46 @@
         <v>-826448.1766822126</v>
       </c>
       <c r="C6" t="n">
-        <v>288303.6068937078</v>
+        <v>288303.6068937074</v>
       </c>
       <c r="D6" t="n">
-        <v>288303.6068937074</v>
+        <v>288303.6068937076</v>
       </c>
       <c r="E6" t="n">
-        <v>-111386.1503932635</v>
+        <v>-111073.5090643425</v>
       </c>
       <c r="F6" t="n">
-        <v>396099.2912312821</v>
+        <v>396411.9325602034</v>
       </c>
       <c r="G6" t="n">
-        <v>396099.2912312824</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="H6" t="n">
-        <v>396099.2912312822</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="I6" t="n">
-        <v>396099.291231282</v>
+        <v>396411.9325602033</v>
       </c>
       <c r="J6" t="n">
-        <v>228494.1134212996</v>
+        <v>228806.7547502211</v>
       </c>
       <c r="K6" t="n">
-        <v>396099.2912312823</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="L6" t="n">
-        <v>396099.2912312823</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="M6" t="n">
-        <v>263491.9975023557</v>
+        <v>263804.6388312769</v>
       </c>
       <c r="N6" t="n">
-        <v>396099.2912312823</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="O6" t="n">
-        <v>396099.2912312823</v>
+        <v>396411.9325602034</v>
       </c>
       <c r="P6" t="n">
-        <v>396099.2912312825</v>
+        <v>396411.9325602035</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>131.1673011786903</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>10.53197388332345</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>56.92876495145651</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>220.1224471232763</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>294.5667825648838</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>142.3534626047078</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>40.72926803641573</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>55.73584717546889</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27827,16 +27827,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>228.2349913893887</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>170.7880014781324</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>235.2464059957723</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31855,13 +31855,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>467.1465236515248</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.93583437922437</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>295.1262901348409</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313203</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>508.7132618620056</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>388.6189266346383</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>328.5921438716506</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
